--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3627.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3627.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.461199770527163</v>
+        <v>1.55986762046814</v>
       </c>
       <c r="B1">
-        <v>2.355878623078115</v>
+        <v>1.970776915550232</v>
       </c>
       <c r="C1">
-        <v>2.621304611667536</v>
+        <v>3.525780916213989</v>
       </c>
       <c r="D1">
-        <v>3.028370422865271</v>
+        <v>1.392233490943909</v>
       </c>
       <c r="E1">
-        <v>1.457324854384827</v>
+        <v>0.8290205001831055</v>
       </c>
     </row>
   </sheetData>
